--- a/house_prices_feature_analysis.xlsx
+++ b/house_prices_feature_analysis.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moshkin\Documents\GitHub\miscellaneous_ds_tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7040"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$82</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -266,16 +269,19 @@
     <t>SaleCondition</t>
   </si>
   <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
+    <t>numerical/categorical</t>
+  </si>
+  <si>
     <t>Segment</t>
   </si>
   <si>
-    <t>numerical/categorical</t>
-  </si>
-  <si>
-    <t>building, space or location</t>
+    <t>building, space, location</t>
   </si>
   <si>
     <t>Expectation</t>
@@ -288,6 +294,66 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sim to LandSlope</t>
+  </si>
+  <si>
+    <t>sim to LandContour</t>
+  </si>
+  <si>
+    <t>similar?</t>
+  </si>
+  <si>
+    <t>sim to ExterQual</t>
+  </si>
+  <si>
+    <t>sim to OverallQual</t>
+  </si>
+  <si>
+    <t>sim to OverallCond</t>
+  </si>
+  <si>
+    <t>sim to ExterCond</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>seem very same</t>
+  </si>
+  <si>
+    <t>too much garage features</t>
+  </si>
+  <si>
+    <t>similar to Street</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
 </sst>
 </file>
@@ -300,7 +366,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -324,17 +389,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,9 +427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -462,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,449 +689,1176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B82"/>
+  <mergeCells count="3">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/house_prices_feature_analysis.xlsx
+++ b/house_prices_feature_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Documents\GitHub\moshkin\miscelaneous_ds_tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -314,18 +314,9 @@
     <t>no</t>
   </si>
   <si>
-    <t>sim to LandSlope</t>
-  </si>
-  <si>
-    <t>sim to LandContour</t>
-  </si>
-  <si>
     <t>similar?</t>
   </si>
   <si>
-    <t>sim to ExterQual</t>
-  </si>
-  <si>
     <t>sim to OverallQual</t>
   </si>
   <si>
@@ -354,6 +345,18 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>very sim to LandSlope</t>
+  </si>
+  <si>
+    <t>very sim to LandContour</t>
+  </si>
+  <si>
+    <t>too few observations</t>
+  </si>
+  <si>
+    <t>might be correlated with other features</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,7 +705,7 @@
     <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -724,7 +728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>82</v>
@@ -738,7 +742,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -746,13 +750,16 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -760,10 +767,13 @@
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -774,13 +784,16 @@
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -788,13 +801,16 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -802,13 +818,13 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -816,13 +832,13 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -830,7 +846,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -844,16 +860,19 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -861,10 +880,13 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -875,10 +897,13 @@
         <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -886,13 +911,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -900,9 +931,12 @@
         <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -914,13 +948,13 @@
         <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
-        <v>97</v>
+      <c r="E15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -931,13 +965,19 @@
         <v>89</v>
       </c>
       <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -945,10 +985,13 @@
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -959,9 +1002,12 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
         <v>90</v>
       </c>
     </row>
@@ -973,13 +1019,16 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>90</v>
       </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -990,16 +1039,19 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
       </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
       <c r="F20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1059,7 @@
         <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>92</v>
@@ -1021,13 +1073,16 @@
         <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1035,13 +1090,13 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1104,7 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
         <v>94</v>
@@ -1063,16 +1118,19 @@
         <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1080,11 +1138,11 @@
         <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1092,13 +1150,13 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1164,7 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -1120,16 +1178,19 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
       <c r="F29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1137,13 +1198,13 @@
         <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1154,13 +1215,16 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1168,13 +1232,13 @@
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1182,13 +1246,16 @@
         <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1196,13 +1263,13 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1210,13 +1277,16 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1224,13 +1294,16 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1238,13 +1311,16 @@
         <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1252,13 +1328,13 @@
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1266,13 +1342,13 @@
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1280,13 +1356,16 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1294,13 +1373,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1308,13 +1387,13 @@
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1322,13 +1401,13 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1336,13 +1415,13 @@
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1350,13 +1429,16 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1364,13 +1446,16 @@
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1378,13 +1463,13 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1392,13 +1477,16 @@
         <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1406,13 +1494,13 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1420,13 +1508,13 @@
         <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1434,13 +1522,13 @@
         <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1448,13 +1536,13 @@
         <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1462,13 +1550,13 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1476,13 +1564,13 @@
         <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1490,13 +1578,13 @@
         <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1504,13 +1592,13 @@
         <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1518,13 +1606,13 @@
         <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1532,13 +1620,13 @@
         <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1546,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1560,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1574,13 +1662,13 @@
         <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1588,13 +1676,13 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1602,16 +1690,16 @@
         <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1619,54 +1707,57 @@
         <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
         <v>92</v>
       </c>
-      <c r="E67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1674,13 +1765,13 @@
         <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1688,13 +1779,13 @@
         <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1702,13 +1793,13 @@
         <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1716,13 +1807,13 @@
         <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1730,13 +1821,13 @@
         <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1744,13 +1835,16 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1758,13 +1852,16 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1772,13 +1869,16 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1786,13 +1886,16 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1800,13 +1903,13 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1814,7 +1917,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1925,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1833,7 +1936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1843,8 +1946,11 @@
       <c r="D81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1853,11 +1959,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B82"/>
+  <autoFilter ref="A1:F82">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="medium"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
